--- a/upload/xls/task.xlsx
+++ b/upload/xls/task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520"/>
+    <workbookView windowWidth="19770" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>ID</t>
   </si>
@@ -52,25 +52,7 @@
     <t>完成状态(1已完成、0未完成)</t>
   </si>
   <si>
-    <t>送审日期</t>
-  </si>
-  <si>
-    <t>送审版交付情况</t>
-  </si>
-  <si>
-    <t>修改版时间</t>
-  </si>
-  <si>
-    <t>修改版交付情况</t>
-  </si>
-  <si>
-    <t>最终版交付日期</t>
-  </si>
-  <si>
-    <t>最终版交付情况</t>
-  </si>
-  <si>
-    <t>13NC001</t>
+    <t>13AB001</t>
   </si>
   <si>
     <t>郑碧涛</t>
@@ -89,9 +71,6 @@
   </si>
   <si>
     <t>高阳</t>
-  </si>
-  <si>
-    <t>已交付</t>
   </si>
 </sst>
 </file>
@@ -99,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -120,6 +99,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -127,6 +135,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -134,8 +166,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,30 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -181,35 +228,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -217,45 +235,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -266,25 +245,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,157 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,32 +444,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +472,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -533,30 +536,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,137 +556,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,13 +709,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1060,10 +1032,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1079,7 +1051,7 @@
     <col min="17" max="17" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1113,34 +1085,16 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="4">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4">
         <v>60</v>
@@ -1149,47 +1103,32 @@
         <v>42814</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="8">
+        <v>18</v>
+      </c>
+      <c r="L2" s="4">
         <v>1</v>
       </c>
-      <c r="M2" s="9">
-        <v>42775</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="9">
-        <v>42865</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>42978</v>
-      </c>
-      <c r="R2" t="s">
-        <v>25</v>
-      </c>
+      <c r="M2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="4"/>
@@ -1203,7 +1142,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="8"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="4"/>
@@ -1217,7 +1156,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="8"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="4"/>
@@ -1231,7 +1170,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="8"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4"/>
@@ -1245,7 +1184,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="8"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4"/>
@@ -1259,7 +1198,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="8"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4"/>
@@ -1273,7 +1212,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="8"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4"/>
@@ -1287,7 +1226,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="8"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4"/>
@@ -1301,7 +1240,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="8"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="4"/>
@@ -1315,7 +1254,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="8"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
@@ -1329,7 +1268,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="8"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
@@ -1343,7 +1282,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="8"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
@@ -1357,7 +1296,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="8"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
@@ -1371,7 +1310,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="8"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
@@ -1385,7 +1324,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="8"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
@@ -1399,7 +1338,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="8"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="4"/>
@@ -1413,7 +1352,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="8"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="4"/>
@@ -1427,7 +1366,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="8"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="4"/>
@@ -1441,7 +1380,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="8"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="4"/>
@@ -1455,7 +1394,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="8"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="4"/>
@@ -1469,7 +1408,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="8"/>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="4"/>
@@ -1483,7 +1422,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="8"/>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="4"/>
@@ -1497,7 +1436,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="8"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="4"/>
@@ -1511,7 +1450,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="8"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="4"/>
@@ -1525,7 +1464,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="8"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="4"/>
@@ -1539,7 +1478,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="8"/>
+      <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="4"/>
@@ -1553,7 +1492,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="8"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="4"/>
@@ -1567,7 +1506,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="8"/>
+      <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="4"/>
@@ -1581,7 +1520,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="8"/>
+      <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="4"/>
@@ -1595,7 +1534,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="8"/>
+      <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="4"/>
@@ -1609,7 +1548,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="8"/>
+      <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="4"/>
@@ -1623,7 +1562,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="8"/>
+      <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="4"/>
@@ -1637,7 +1576,7 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="8"/>
+      <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="4"/>
@@ -1651,7 +1590,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="8"/>
+      <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="4"/>
@@ -1665,7 +1604,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="8"/>
+      <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="4"/>
@@ -1679,7 +1618,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="8"/>
+      <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="4"/>
@@ -1693,7 +1632,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="8"/>
+      <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="4"/>
@@ -1707,7 +1646,7 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="8"/>
+      <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="4"/>
@@ -1721,7 +1660,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="8"/>
+      <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="4"/>
@@ -1735,7 +1674,7 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="8"/>
+      <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="4"/>
@@ -1749,7 +1688,7 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="8"/>
+      <c r="L42" s="4"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="4"/>
@@ -1763,7 +1702,7 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="8"/>
+      <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="4"/>
@@ -1777,7 +1716,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="8"/>
+      <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="4"/>
@@ -1791,7 +1730,7 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="8"/>
+      <c r="L45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
